--- a/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -61,6 +61,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Âïó áú òåêœàò ïëôîôóûòÿ â ðñôä.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder if there\'s something\nspecial if you recycle a lot…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0717.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, если переработать\nмного вещей, произойдёт ли что-то\nособенное…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, åòìé ðåñåñàáïóàóû\níîïãï âåþåê, ðñïéèïêäæó ìé œóï-óï\nïòïáåîîïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An expedition! ♪[K] I envy you! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0803.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Экспедиция! ♪[K] Я вам завидую! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üëòðåäéøéÿ! ♪[K] Ÿ âàí èàâéäôý! ♪</t>
   </si>
 </sst>
 </file>
@@ -458,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,8 +562,63 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>332</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8">
+        <v>307</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4">
+        <v>288</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Üëòðåäéøéÿ! ♪[K] Ÿ âàí èàâéäôý! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to win big…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу крупный выигрыш...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô ëñôðîúê âúéãñúš...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1411.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An Egg is...[K]sort of happy! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Яйцо...[K] В своём роде радо! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿêøï...[K] Â òâïæí ñïäå ñàäï! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1504.ssb</t>
   </si>
 </sst>
 </file>
@@ -127,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -181,11 +211,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -212,6 +251,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,20 +650,68 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <v>288</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>269</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4">
+        <v>250</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -127,6 +127,69 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um1504.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two are great! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое просто великолепны! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå ðñïòóï âåìéëïìåðîú! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s find some treasure... ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пора найти сокровища... ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñà îàêóé òïëñïâéþà... ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Shaymin[CR] are so small\nand cute. ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3121.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Шеймины[CR] такие маленькие и\nмиленькие. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Šåêíéîú[CR] óàëéå íàìåîûëéå é\níéìåîûëéå. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a so-called secret, so it \nmust be hidden…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s hard to find, huh?\nHa ha ha. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Её называют секретной, значит\nона скрыта...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Её непросто найти, а?\nХа-ха-ха. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åæ îàèúâàýó òåëñåóîïê, èîàœéó\nïîà òëñúóà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åæ îåðñïòóï îàêóé, à?\nÖà-öà-öà. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This place is so relaxing. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь так хорошо. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû óàë öïñïšï. ♪</t>
   </si>
 </sst>
 </file>
@@ -539,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,8 +773,105 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8">
+        <v>225</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8">
+        <v>206</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4">
+        <v>187</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>165</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>168</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -190,6 +190,72 @@
   </si>
   <si>
     <t xml:space="preserve"> Èäåòû óàë öïñïšï. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How thoughtless of me!\nHa ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой я глупый! Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ÿ ãìôðúê! Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0209.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so happy that we got to go\nto the [CS:P]Shaymin Village[CR]. ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так рад, что мы посетили\n[CS:P]Деревню Шейминов[CR]. ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë ñàä, œóï íú ðïòåóéìé\n[CS:P]Äåñåâîý Šåêíéîïâ[CR]. ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, wow! How nice! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, вау! Как здорово! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, âàô! Ëàë èäïñïâï! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A [CS:I]Wonder Gummi[CR] is a\nfantastic Gummi! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P03A/us0408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Чудо-Желе[CR] это потрясающее\nЖеле! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Œôäï-Çåìå[CR] üóï ðïóñÿòàýþåå\nÇåìå! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2003.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go for it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только вперёд!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï âðåñæä!</t>
   </si>
 </sst>
 </file>
@@ -220,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -283,11 +349,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -320,6 +395,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,18 +941,121 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
         <v>146</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="13" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10">
+        <v>124</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4">
+        <v>58</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Политод.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Óïìûëï âðåñæä!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2307.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exploring is always fun! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Исследовать всегда весело! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éòòìåäïâàóû âòåãäà âåòåìï! ♪</t>
   </si>
 </sst>
 </file>
@@ -683,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,20 +1054,37 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="8">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="9" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
